--- a/Power BI and Fabric Licensing.xlsx
+++ b/Power BI and Fabric Licensing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38fedbb726841d9a/MicrosoftHatesGregsQuickMeasures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{BE01064D-6E2B-41DD-997B-676DF9C4CC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71122B35-17E1-4B73-A094-7E37B9ADA122}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{BE01064D-6E2B-41DD-997B-676DF9C4CC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D653794-285E-4CA0-A134-BFF65C5539BA}"/>
   <bookViews>
     <workbookView xWindow="24850" yWindow="400" windowWidth="38620" windowHeight="21100" xr2:uid="{E3F9F62C-23A3-4DD3-8CD7-5C0B6F825630}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="57">
   <si>
     <t>Free</t>
   </si>
@@ -207,13 +206,16 @@
   </si>
   <si>
     <t>100 TB?</t>
+  </si>
+  <si>
+    <t>Included (within the embedding app)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +235,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,10 +278,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -613,7 +621,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,7 +631,9 @@
     <col min="3" max="3" width="8.6328125" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.6328125" customWidth="1"/>
     <col min="10" max="10" width="32.1796875" customWidth="1"/>
   </cols>
@@ -898,7 +908,7 @@
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -924,7 +934,7 @@
       <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -950,7 +960,7 @@
       <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -976,7 +986,7 @@
       <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1000,7 +1010,9 @@
       <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1020,7 +1032,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1042,7 +1054,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1070,7 +1082,7 @@
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1098,7 +1110,7 @@
       <c r="F18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1126,7 +1138,7 @@
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>55</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1158,7 +1170,7 @@
       <c r="F20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1175,7 +1187,7 @@
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1192,7 +1204,7 @@
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>53</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1209,10 +1221,10 @@
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -1232,7 +1244,7 @@
       <c r="F24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1255,7 +1267,7 @@
       <c r="F25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -1278,7 +1290,7 @@
       <c r="F26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H26" s="1" t="s">

--- a/Power BI and Fabric Licensing.xlsx
+++ b/Power BI and Fabric Licensing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38fedbb726841d9a/MicrosoftHatesGregsQuickMeasures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{BE01064D-6E2B-41DD-997B-676DF9C4CC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D653794-285E-4CA0-A134-BFF65C5539BA}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{BE01064D-6E2B-41DD-997B-676DF9C4CC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C2A13F-DB27-4322-82B5-789B735D9A49}"/>
   <bookViews>
     <workbookView xWindow="24850" yWindow="400" windowWidth="38620" windowHeight="21100" xr2:uid="{E3F9F62C-23A3-4DD3-8CD7-5C0B6F825630}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="57">
   <si>
     <t>Free</t>
   </si>
@@ -621,7 +621,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -797,12 +797,8 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>17</v>
@@ -823,12 +819,8 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>17</v>
@@ -849,12 +841,8 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
@@ -875,12 +863,8 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1221,9 +1205,7 @@
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="1" t="s">
         <v>17</v>
       </c>
